--- a/target/classes/TestData.xlsx
+++ b/target/classes/TestData.xlsx
@@ -396,7 +396,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/target/classes/TestData.xlsx
+++ b/target/classes/TestData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>UserName</t>
   </si>
@@ -38,7 +38,10 @@
     <t>65-inch TV</t>
   </si>
   <si>
-    <t>username</t>
+    <t>shobhit1492@gmail.com</t>
+  </si>
+  <si>
+    <t>Gahoi@123</t>
   </si>
 </sst>
 </file>
@@ -396,14 +399,14 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -425,8 +428,8 @@
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C2">
         <v>9721746827</v>
@@ -437,7 +440,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="bvakhila11@gmail.com"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/target/classes/TestData.xlsx
+++ b/target/classes/TestData.xlsx
@@ -38,10 +38,10 @@
     <t>65-inch TV</t>
   </si>
   <si>
-    <t>shobhit1492@gmail.com</t>
-  </si>
-  <si>
-    <t>Gahoi@123</t>
+    <t>shobhit</t>
+  </si>
+  <si>
+    <t>sho@1234</t>
   </si>
 </sst>
 </file>
@@ -440,7 +440,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" display="shobhit1492@gmail.com"/>
     <hyperlink ref="B2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/target/classes/TestData.xlsx
+++ b/target/classes/TestData.xlsx
@@ -38,10 +38,10 @@
     <t>65-inch TV</t>
   </si>
   <si>
-    <t>shobhit</t>
-  </si>
-  <si>
-    <t>sho@1234</t>
+    <t>shobhit1492@gmail.com</t>
+  </si>
+  <si>
+    <t>Gahoi@123#</t>
   </si>
 </sst>
 </file>
@@ -399,7 +399,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,7 +440,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="shobhit1492@gmail.com"/>
+    <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="B2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
